--- a/metadata/data/input/analysis/LDM INTF Report.xlsx
+++ b/metadata/data/input/analysis/LDM INTF Report.xlsx
@@ -2905,7 +2905,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2917,6 +2917,8 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="13" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3257,7 +3259,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3631,7 +3633,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" ht="15.75" thickBot="1">
       <c r="D33" t="s">
         <v>95</v>
       </c>
@@ -3642,18 +3644,19 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="D34" t="s">
         <v>98</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="7" t="s">
         <v>99</v>
       </c>
+      <c r="F34" s="8"/>
       <c r="G34" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" ht="15.75" thickTop="1">
       <c r="D35" t="s">
         <v>101</v>
       </c>
